--- a/代理/西航石化城市合伙人收益_湖北武汉.xlsx
+++ b/代理/西航石化城市合伙人收益_湖北武汉.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="08月" sheetId="5" r:id="rId1"/>
     <sheet name="09月" sheetId="4" r:id="rId2"/>
     <sheet name="10月" sheetId="3" r:id="rId3"/>
+    <sheet name="11月" sheetId="6" r:id="rId4"/>
+    <sheet name="12月" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="39">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -513,6 +515,15 @@
     <xf numFmtId="57" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -540,6 +551,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -547,24 +567,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -863,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="G1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -880,26 +882,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="7:14" ht="22.5">
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="22"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="25"/>
     </row>
     <row r="2" spans="7:14" ht="16.5">
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="28"/>
     </row>
     <row r="3" spans="7:14" ht="16.5">
       <c r="G3" s="10" t="s">
@@ -933,17 +935,17 @@
       <c r="I4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="33"/>
+      <c r="K4" s="30"/>
       <c r="L4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="M4" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="31"/>
+      <c r="N4" s="19"/>
     </row>
     <row r="5" spans="7:14" ht="16.5">
       <c r="G5" s="10" t="s">
@@ -968,14 +970,14 @@
       <c r="N5" s="11"/>
     </row>
     <row r="6" spans="7:14" ht="16.5">
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="28"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="34"/>
     </row>
     <row r="7" spans="7:14" ht="16.5">
       <c r="G7" s="10" t="s">
@@ -1025,14 +1027,14 @@
       <c r="N8" s="12"/>
     </row>
     <row r="9" spans="7:14" ht="16.5">
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="25"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="28"/>
     </row>
     <row r="10" spans="7:14" ht="16.5">
       <c r="G10" s="13"/>
@@ -1106,26 +1108,26 @@
       </c>
     </row>
     <row r="13" spans="7:14" ht="16.5">
-      <c r="G13" s="29"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="31"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="19"/>
     </row>
     <row r="14" spans="7:14" ht="48" customHeight="1" thickBot="1">
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="19"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1153,7 +1155,7 @@
   <dimension ref="I1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1169,26 +1171,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="9:16" ht="22.5">
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="22"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="25"/>
     </row>
     <row r="2" spans="9:16" ht="16.5">
-      <c r="I2" s="23"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="25"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="28"/>
     </row>
     <row r="3" spans="9:16" ht="16.5">
       <c r="I3" s="10" t="s">
@@ -1222,17 +1224,17 @@
       <c r="K4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="33"/>
+      <c r="M4" s="30"/>
       <c r="N4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="34" t="s">
+      <c r="O4" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="31"/>
+      <c r="P4" s="19"/>
     </row>
     <row r="5" spans="9:16" ht="16.5">
       <c r="I5" s="10" t="s">
@@ -1257,14 +1259,14 @@
       <c r="P5" s="11"/>
     </row>
     <row r="6" spans="9:16" ht="16.5">
-      <c r="I6" s="26"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="28"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="34"/>
     </row>
     <row r="7" spans="9:16" ht="16.5">
       <c r="I7" s="10" t="s">
@@ -1312,14 +1314,14 @@
       <c r="P8" s="12"/>
     </row>
     <row r="9" spans="9:16" ht="16.5">
-      <c r="I9" s="23"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="25"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="28"/>
     </row>
     <row r="10" spans="9:16" ht="16.5">
       <c r="I10" s="13"/>
@@ -1393,26 +1395,26 @@
       </c>
     </row>
     <row r="13" spans="9:16" ht="16.5">
-      <c r="I13" s="29"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="31"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="19"/>
     </row>
     <row r="14" spans="9:16" ht="43.5" customHeight="1" thickBot="1">
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="19"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1440,6 +1442,305 @@
   <dimension ref="H1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9" style="1"/>
+    <col min="19" max="19" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="8:18" ht="17.25" thickBot="1"/>
+    <row r="2" spans="8:18" ht="22.5">
+      <c r="H2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="8:18">
+      <c r="H3" s="26"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="28"/>
+    </row>
+    <row r="4" spans="8:18">
+      <c r="H4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>43009</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="8:18">
+      <c r="H5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="30"/>
+      <c r="M5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="19"/>
+    </row>
+    <row r="6" spans="8:18">
+      <c r="H6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="2">
+        <v>120</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="2">
+        <v>32.4</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="11"/>
+      <c r="R6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="8:18">
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="34"/>
+    </row>
+    <row r="8" spans="8:18">
+      <c r="H8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="4">
+        <v>5.99</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="2">
+        <f>K6*1190</f>
+        <v>38556</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="12">
+        <f>M8*K8</f>
+        <v>230950.44</v>
+      </c>
+    </row>
+    <row r="9" spans="8:18">
+      <c r="H9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="4">
+        <f>O8*I9</f>
+        <v>6928.5131999999994</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="12"/>
+    </row>
+    <row r="10" spans="8:18">
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="28"/>
+    </row>
+    <row r="11" spans="8:18">
+      <c r="H11" s="13"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="12">
+        <f>K9</f>
+        <v>6928.5131999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="8:18">
+      <c r="H12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="12">
+        <f>O11*I12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="4">
+        <f>K12</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="8:18">
+      <c r="H13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="4">
+        <f>O11*I13</f>
+        <v>1385.70264</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="9">
+        <f>O11-K13-K12</f>
+        <v>5542.8105599999999</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O13" s="14">
+        <v>43044</v>
+      </c>
+    </row>
+    <row r="14" spans="8:18">
+      <c r="H14" s="17"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="19"/>
+    </row>
+    <row r="15" spans="8:18" ht="50.25" customHeight="1" thickBot="1">
+      <c r="H15" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="22"/>
+    </row>
+    <row r="16" spans="8:18" ht="32.25" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="H2:O2"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="H7:O7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6">
+      <formula1>"优秀,超出预期,符合预期,低于预期"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="H1:R16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -1461,26 +1762,26 @@
   <sheetData>
     <row r="1" spans="8:18" ht="17.25" thickBot="1"/>
     <row r="2" spans="8:18" ht="22.5">
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="22"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="25"/>
     </row>
     <row r="3" spans="8:18">
-      <c r="H3" s="23"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="25"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="28"/>
     </row>
     <row r="4" spans="8:18">
       <c r="H4" s="10" t="s">
@@ -1499,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="3">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="11"/>
@@ -1514,17 +1815,17 @@
       <c r="J5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="33"/>
+      <c r="L5" s="30"/>
       <c r="M5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="34" t="s">
+      <c r="N5" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="31"/>
+      <c r="O5" s="19"/>
     </row>
     <row r="6" spans="8:18">
       <c r="H6" s="10" t="s">
@@ -1537,13 +1838,13 @@
         <v>11</v>
       </c>
       <c r="K6" s="2">
-        <v>32.4</v>
+        <v>105.6</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="11"/>
@@ -1552,14 +1853,14 @@
       </c>
     </row>
     <row r="7" spans="8:18">
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="28"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="34"/>
     </row>
     <row r="8" spans="8:18">
       <c r="H8" s="10" t="s">
@@ -1572,21 +1873,21 @@
         <v>10</v>
       </c>
       <c r="K8" s="4">
-        <v>5.99</v>
+        <v>6.08</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M8" s="2">
         <f>K6*1190</f>
-        <v>38556</v>
+        <v>125664</v>
       </c>
       <c r="N8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="O8" s="12">
         <f>M8*K8</f>
-        <v>230950.44</v>
+        <v>764037.12</v>
       </c>
     </row>
     <row r="9" spans="8:18">
@@ -1601,7 +1902,7 @@
       </c>
       <c r="K9" s="4">
         <f>O8*I9</f>
-        <v>6928.5131999999994</v>
+        <v>22921.113600000001</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="6"/>
@@ -1609,14 +1910,14 @@
       <c r="O9" s="12"/>
     </row>
     <row r="10" spans="8:18">
-      <c r="H10" s="23"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="28"/>
     </row>
     <row r="11" spans="8:18">
       <c r="H11" s="13"/>
@@ -1630,7 +1931,7 @@
       </c>
       <c r="O11" s="12">
         <f>K9</f>
-        <v>6928.5131999999994</v>
+        <v>22921.113600000001</v>
       </c>
     </row>
     <row r="12" spans="8:18">
@@ -1673,14 +1974,14 @@
       </c>
       <c r="K13" s="4">
         <f>O11*I13</f>
-        <v>1385.70264</v>
+        <v>4584.2227200000007</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>21</v>
       </c>
       <c r="M13" s="9">
         <f>O11-K13-K12</f>
-        <v>5542.8105599999999</v>
+        <v>18336.890879999999</v>
       </c>
       <c r="N13" s="7" t="s">
         <v>8</v>
@@ -1690,31 +1991,28 @@
       </c>
     </row>
     <row r="14" spans="8:18">
-      <c r="H14" s="29"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="31"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="19"/>
     </row>
     <row r="15" spans="8:18" ht="50.25" customHeight="1" thickBot="1">
-      <c r="H15" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="19"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="22"/>
     </row>
     <row r="16" spans="8:18" ht="32.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="H10:O10"/>
     <mergeCell ref="H14:O14"/>
     <mergeCell ref="H15:O15"/>
     <mergeCell ref="H2:O2"/>
@@ -1722,6 +2020,304 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="H7:O7"/>
+    <mergeCell ref="H10:O10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6">
+      <formula1>"优秀,超出预期,符合预期,低于预期"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="H1:R16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9" style="1"/>
+    <col min="19" max="19" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="8:18" ht="17.25" thickBot="1"/>
+    <row r="2" spans="8:18" ht="22.5">
+      <c r="H2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="8:18">
+      <c r="H3" s="26"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="28"/>
+    </row>
+    <row r="4" spans="8:18">
+      <c r="H4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>43070</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="8:18">
+      <c r="H5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="30"/>
+      <c r="M5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="19"/>
+    </row>
+    <row r="6" spans="8:18">
+      <c r="H6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="2">
+        <v>120</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="2">
+        <v>122.5</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="11"/>
+      <c r="R6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="8:18">
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="34"/>
+    </row>
+    <row r="8" spans="8:18">
+      <c r="H8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="4">
+        <v>5.99</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="2">
+        <f>K6*1190</f>
+        <v>145775</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="12">
+        <f>M8*K8</f>
+        <v>873192.25</v>
+      </c>
+    </row>
+    <row r="9" spans="8:18">
+      <c r="H9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="4">
+        <f>O8*I9</f>
+        <v>26195.767499999998</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="12"/>
+    </row>
+    <row r="10" spans="8:18">
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="28"/>
+    </row>
+    <row r="11" spans="8:18">
+      <c r="H11" s="13"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="12">
+        <f>K9</f>
+        <v>26195.767499999998</v>
+      </c>
+    </row>
+    <row r="12" spans="8:18">
+      <c r="H12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="12">
+        <f>O11*I12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="4">
+        <f>K12</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="8:18">
+      <c r="H13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="4">
+        <f>O11*I13</f>
+        <v>5239.1535000000003</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="9">
+        <f>O11-K13-K12</f>
+        <v>20956.613999999998</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O13" s="14">
+        <v>43044</v>
+      </c>
+    </row>
+    <row r="14" spans="8:18">
+      <c r="H14" s="17"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="19"/>
+    </row>
+    <row r="15" spans="8:18" ht="50.25" customHeight="1" thickBot="1">
+      <c r="H15" s="20"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="22"/>
+    </row>
+    <row r="16" spans="8:18" ht="32.25" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="H2:O2"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="H10:O10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
